--- a/Data/Exp_carbon_sources.xlsx
+++ b/Data/Exp_carbon_sources.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cheyu/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cheyu/Documents/GitHub/CofactorYeast/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37012B34-E72F-7E46-BDCE-D76EF505F21C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A6EC376-00A1-FD4E-9DEA-9BB14A86EEB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="960" windowWidth="26980" windowHeight="16540" xr2:uid="{0CF54837-71C1-8F43-AFF4-ECE8589B40DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -454,7 +453,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -916,16 +915,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FF74824-92C9-0D47-B4BB-E3FDA4112F71}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>